--- a/image_algorithm_compression.xlsx
+++ b/image_algorithm_compression.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LocalWorking\Github\Data_Compression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\School_UIT\Semester IV\[CS232] Introduction to Multimedia Computing\Working\Final Project\Data_Compression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DAF9C7-9729-4EFA-9055-1F45796AFD01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CABD4A-42EA-4802-A41B-688F89395D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{972FF64E-D9D9-4000-8504-5637D2C99919}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" activeTab="1" xr2:uid="{972FF64E-D9D9-4000-8504-5637D2C99919}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
   <si>
     <t>Dữ liệu</t>
   </si>
@@ -111,6 +112,138 @@
   </si>
   <si>
     <t>1080x1080  K mean (k = 32)</t>
+  </si>
+  <si>
+    <t>1080x1080  K mean (k = 64)</t>
+  </si>
+  <si>
+    <t>LZW</t>
+  </si>
+  <si>
+    <t>Text1</t>
+  </si>
+  <si>
+    <t>Text2</t>
+  </si>
+  <si>
+    <t>Text3</t>
+  </si>
+  <si>
+    <t>Text4</t>
+  </si>
+  <si>
+    <t>Text5</t>
+  </si>
+  <si>
+    <t>Text6</t>
+  </si>
+  <si>
+    <t>Text7</t>
+  </si>
+  <si>
+    <t>Text8</t>
+  </si>
+  <si>
+    <t>Text9</t>
+  </si>
+  <si>
+    <t>Text10</t>
+  </si>
+  <si>
+    <t>Text11</t>
+  </si>
+  <si>
+    <t>Text12</t>
+  </si>
+  <si>
+    <t>Text13</t>
+  </si>
+  <si>
+    <t>Text14</t>
+  </si>
+  <si>
+    <t>Text15</t>
+  </si>
+  <si>
+    <t>Text16</t>
+  </si>
+  <si>
+    <t>Text17</t>
+  </si>
+  <si>
+    <t>Text18</t>
+  </si>
+  <si>
+    <t>Text19</t>
+  </si>
+  <si>
+    <t>Text20</t>
+  </si>
+  <si>
+    <t>Text21</t>
+  </si>
+  <si>
+    <t>Text22</t>
+  </si>
+  <si>
+    <t>Text23</t>
+  </si>
+  <si>
+    <t>Text24</t>
+  </si>
+  <si>
+    <t>Text25</t>
+  </si>
+  <si>
+    <t>Text26</t>
+  </si>
+  <si>
+    <t>Text27</t>
+  </si>
+  <si>
+    <t>Text28</t>
+  </si>
+  <si>
+    <t>Text29</t>
+  </si>
+  <si>
+    <t>Text30</t>
+  </si>
+  <si>
+    <t>Text31</t>
+  </si>
+  <si>
+    <t>Text32</t>
+  </si>
+  <si>
+    <t>Text33</t>
+  </si>
+  <si>
+    <t>Text34</t>
+  </si>
+  <si>
+    <t>Text35</t>
+  </si>
+  <si>
+    <t>Text36</t>
+  </si>
+  <si>
+    <t>Text37</t>
+  </si>
+  <si>
+    <t>Text38</t>
+  </si>
+  <si>
+    <t>Text39</t>
+  </si>
+  <si>
+    <t>Text40</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Compression ratio</t>
   </si>
 </sst>
 </file>
@@ -471,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6948FE-AE11-44D0-B51B-D104672616C2}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -711,9 +844,12 @@
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="1" t="e">
+      <c r="C24">
+        <v>1.6</v>
+      </c>
+      <c r="D24" s="1">
         <f>AVERAGE(C24:C43)</f>
-        <v>#DIV/0!</v>
+        <v>1.6000000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -721,6 +857,9 @@
       <c r="B25" t="s">
         <v>4</v>
       </c>
+      <c r="C25">
+        <v>1.6</v>
+      </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -728,6 +867,9 @@
       <c r="B26" t="s">
         <v>5</v>
       </c>
+      <c r="C26">
+        <v>1.6</v>
+      </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -735,6 +877,9 @@
       <c r="B27" t="s">
         <v>6</v>
       </c>
+      <c r="C27">
+        <v>1.6</v>
+      </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -742,6 +887,9 @@
       <c r="B28" t="s">
         <v>7</v>
       </c>
+      <c r="C28">
+        <v>1.6</v>
+      </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -749,6 +897,9 @@
       <c r="B29" t="s">
         <v>8</v>
       </c>
+      <c r="C29">
+        <v>1.6</v>
+      </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -756,6 +907,9 @@
       <c r="B30" t="s">
         <v>9</v>
       </c>
+      <c r="C30">
+        <v>1.6</v>
+      </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -763,6 +917,9 @@
       <c r="B31" t="s">
         <v>10</v>
       </c>
+      <c r="C31">
+        <v>1.6</v>
+      </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -770,6 +927,9 @@
       <c r="B32" t="s">
         <v>11</v>
       </c>
+      <c r="C32">
+        <v>1.6</v>
+      </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -777,6 +937,9 @@
       <c r="B33" t="s">
         <v>12</v>
       </c>
+      <c r="C33">
+        <v>1.6</v>
+      </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -784,6 +947,9 @@
       <c r="B34" t="s">
         <v>13</v>
       </c>
+      <c r="C34">
+        <v>1.6</v>
+      </c>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -791,6 +957,9 @@
       <c r="B35" t="s">
         <v>14</v>
       </c>
+      <c r="C35">
+        <v>1.6</v>
+      </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -798,6 +967,9 @@
       <c r="B36" t="s">
         <v>15</v>
       </c>
+      <c r="C36">
+        <v>1.6</v>
+      </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -805,6 +977,9 @@
       <c r="B37" t="s">
         <v>16</v>
       </c>
+      <c r="C37">
+        <v>1.6</v>
+      </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -812,6 +987,9 @@
       <c r="B38" t="s">
         <v>17</v>
       </c>
+      <c r="C38">
+        <v>1.6</v>
+      </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -819,6 +997,9 @@
       <c r="B39" t="s">
         <v>18</v>
       </c>
+      <c r="C39">
+        <v>1.6</v>
+      </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -826,6 +1007,9 @@
       <c r="B40" t="s">
         <v>19</v>
       </c>
+      <c r="C40">
+        <v>1.6</v>
+      </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -833,6 +1017,9 @@
       <c r="B41" t="s">
         <v>20</v>
       </c>
+      <c r="C41">
+        <v>1.6</v>
+      </c>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -840,6 +1027,9 @@
       <c r="B42" t="s">
         <v>21</v>
       </c>
+      <c r="C42">
+        <v>1.6</v>
+      </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -847,17 +1037,475 @@
       <c r="B43" t="s">
         <v>22</v>
       </c>
+      <c r="C43">
+        <v>1.6</v>
+      </c>
       <c r="D43" s="1"/>
     </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>1.6</v>
+      </c>
+      <c r="D46" s="1">
+        <f>AVERAGE(C46:C65)</f>
+        <v>1.6000000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>1.6</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>1.6</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>1.6</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>1.6</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>1.6</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>1.6</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>1.6</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>1.6</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>1.6</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56">
+        <v>1.6</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>1.6</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>1.6</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>1.6</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60">
+        <v>1.6</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>1.6</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>1.6</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>1.6</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64">
+        <v>1.6</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65">
+        <v>1.6</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="D2:D21"/>
     <mergeCell ref="A24:A43"/>
     <mergeCell ref="D24:D43"/>
+    <mergeCell ref="A46:A65"/>
+    <mergeCell ref="D46:D65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE253CF-4270-4C42-A034-4AD909F8661B}">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/image_algorithm_compression.xlsx
+++ b/image_algorithm_compression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\School_UIT\Semester IV\[CS232] Introduction to Multimedia Computing\Working\Final Project\Data_Compression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CABD4A-42EA-4802-A41B-688F89395D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362C367F-4AE0-4A1B-BFB7-EBAA418FE94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" activeTab="1" xr2:uid="{972FF64E-D9D9-4000-8504-5637D2C99919}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>Dữ liệu</t>
   </si>
@@ -1264,247 +1264,346 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE253CF-4270-4C42-A034-4AD909F8661B}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3">
         <v>1.66</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="1">
+        <f>AVERAGE(B3:B22)</f>
+        <v>1.6059999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5">
         <v>1.64</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7">
         <v>1.79</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1.58</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1.49</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1.54</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1.55</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1.95</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1.62</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1.53</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1.7</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1.49</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1.66</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1.57</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1.8</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1.54</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1.48</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1.56</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>67</v>
       </c>
+      <c r="C42" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C22"/>
+    <mergeCell ref="C23:C42"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/image_algorithm_compression.xlsx
+++ b/image_algorithm_compression.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\School_UIT\Semester IV\[CS232] Introduction to Multimedia Computing\Working\Final Project\Data_Compression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362C367F-4AE0-4A1B-BFB7-EBAA418FE94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E0ED21-1CB0-40F3-9032-6E1D613E7CCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" activeTab="1" xr2:uid="{972FF64E-D9D9-4000-8504-5637D2C99919}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="1080x1080" sheetId="1" r:id="rId1"/>
+    <sheet name="Arithmetic" sheetId="3" r:id="rId2"/>
+    <sheet name="LZW" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="70">
   <si>
     <t>Dữ liệu</t>
   </si>
@@ -606,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6948FE-AE11-44D0-B51B-D104672616C2}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -1263,11 +1264,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE253CF-4270-4C42-A034-4AD909F8661B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381FBFE8-713B-4C1D-8FB6-321018296AD6}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1298,6 +1299,412 @@
         <v>28</v>
       </c>
       <c r="B3">
+        <v>12.02</v>
+      </c>
+      <c r="C3" s="1">
+        <f>AVERAGE(B3:B22)</f>
+        <v>10.327499999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>7.47</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>9.94</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>4.01</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>17.12</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>8.93</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>6.65</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>7.64</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>8.58</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>21.96</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>10.75</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>8.98</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>13.31</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>7.07</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>11.64</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>8.36</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>16.93</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>7.17</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>8.57</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>13.43</v>
+      </c>
+      <c r="C23" s="1">
+        <f>AVERAGE(B23:B42)</f>
+        <v>29.426500000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>17.8</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>15.72</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>47.76</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>32.32</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>24.82</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>14.42</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31">
+        <v>29.51</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>33.01</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33">
+        <v>28.24</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>18.91</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36">
+        <v>42.34</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37">
+        <v>19.68</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38">
+        <v>60.42</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39">
+        <v>38.29</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40">
+        <v>15.05</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41">
+        <v>55.08</v>
+      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42">
+        <v>31.65</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C22"/>
+    <mergeCell ref="C23:C42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE253CF-4270-4C42-A034-4AD909F8661B}">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C45" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
         <v>1.66</v>
       </c>
       <c r="C3" s="1">
@@ -1483,119 +1890,179 @@
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <f>AVERAGE(B23:B42)</f>
+        <v>2.1465000000000001</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
+      <c r="B24">
+        <v>2.17</v>
+      </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>50</v>
       </c>
+      <c r="B25">
+        <v>2.12</v>
+      </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>51</v>
       </c>
+      <c r="B26">
+        <v>1.95</v>
+      </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
+      <c r="B27">
+        <v>2.27</v>
+      </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>53</v>
       </c>
+      <c r="B28">
+        <v>2.14</v>
+      </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>54</v>
       </c>
+      <c r="B29">
+        <v>2.1</v>
+      </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
+      <c r="B30">
+        <v>2.08</v>
+      </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>56</v>
       </c>
+      <c r="B31">
+        <v>2.0699999999999998</v>
+      </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
+      <c r="B32">
+        <v>2.16</v>
+      </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>58</v>
       </c>
+      <c r="B33">
+        <v>2.09</v>
+      </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>59</v>
       </c>
+      <c r="B34">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>60</v>
       </c>
+      <c r="B35">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>61</v>
       </c>
+      <c r="B36">
+        <v>2.2599999999999998</v>
+      </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>62</v>
       </c>
+      <c r="B37">
+        <v>1.98</v>
+      </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>63</v>
       </c>
+      <c r="B38">
+        <v>2.44</v>
+      </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>64</v>
       </c>
+      <c r="B39">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
+      <c r="B40">
+        <v>2.06</v>
+      </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>66</v>
       </c>
+      <c r="B41">
+        <v>2.36</v>
+      </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>67</v>
+      </c>
+      <c r="B42">
+        <v>2.08</v>
       </c>
       <c r="C42" s="1"/>
     </row>
